--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354066.8181007599</v>
+        <v>356518.3765371651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437308</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6555517.934514713</v>
+        <v>6383294.411194176</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>40.52589087328188</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>93.8131312002369</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3773027531633</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.98329378456221</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -826,13 +828,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>268.0670038192007</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.3430365919147</v>
+        <v>50.38214486019078</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810346</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>266.2723283900668</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1133,22 +1135,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3950232139772</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>242.7782222081376</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>119.4681854142828</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1370,19 +1372,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>82.97911300512469</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>86.80968187007424</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.4964215242403</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>79.58259612526865</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>103.1995121273624</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1689,7 +1691,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1774,16 +1776,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>106.9706214097031</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1847,13 +1849,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3950232139772</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.2658873081451</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2093,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>101.4378692982582</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.669058643913949</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2302,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>387.0580571751446</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2774342432089</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.324715647749816</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>40.39502321397677</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7712187773943</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2728,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.1919788215552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>393.9470907639073</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2804,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>49.43649951743231</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>138.0748604270554</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.4208820523424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.09751710528911</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3196,7 +3198,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>105.9181683904495</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H35" t="n">
-        <v>251.7082699217153</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>27.35334490128979</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.91227180040797</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>383.5604440308334</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>59.37914542027372</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>129.0638484442161</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>393.9470907639069</v>
       </c>
       <c r="C41" t="n">
-        <v>122.5308687224224</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.89256983317846</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3952,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>140.047086348663</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>366.8461780342795</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>15.09023863101106</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>85.25432609134842</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>215.7942570968687</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1592.556869842094</v>
+        <v>1328.195547152093</v>
       </c>
       <c r="C2" t="n">
-        <v>1182.432279155364</v>
+        <v>918.0709564653631</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.432279155364</v>
+        <v>918.0709564653631</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.432279155364</v>
+        <v>503.7307409822598</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>82.70032893594737</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1993.493542894004</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1993.493542894004</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.493542894004</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.493542894004</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.493542894004</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.493542894004</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.556869842094</v>
+        <v>1738.416726816582</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227552</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O3" t="n">
-        <v>2048.100145893877</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>649.6099637723298</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>319.0219466569564</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1145.223475107064</v>
+        <v>1300.389230917926</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.223475107064</v>
+        <v>1062.045368777609</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.223475107064</v>
+        <v>837.3096701663742</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1695.988587952916</v>
+        <v>860.6179604234998</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668881</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>911.5090158378339</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>911.5090158378339</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F6" t="n">
         <v>240.2510026593071</v>
@@ -4638,34 +4640,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>675.164428100838</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O6" t="n">
-        <v>1724.070068790184</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,7 +4682,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
         <v>1196.626901649</v>
@@ -4689,7 +4691,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4753,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.202034381698</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>1023.132369890572</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7885077502552</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492.6927300678241</v>
+        <v>1420.972610075122</v>
       </c>
       <c r="C8" t="n">
-        <v>82.56813938109417</v>
+        <v>1420.972610075122</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>1420.972610075122</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>1006.632394592019</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.493980615271</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X8" t="n">
-        <v>1303.850582784223</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y8" t="n">
-        <v>902.9139097323135</v>
+        <v>1831.193789739612</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
         <v>1571.411346813777</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.4442079614679</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>323.3508355231844</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6759007612826</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4987,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>906.8796129667476</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.1439143555123</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>944.4352462872621</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="C11" t="n">
-        <v>534.3106556005322</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D11" t="n">
-        <v>534.3106556005322</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E11" t="n">
-        <v>534.3106556005322</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5042,19 +5044,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L11" t="n">
-        <v>216.5644706858345</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M11" t="n">
-        <v>733.4074053521598</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N11" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O11" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P11" t="n">
         <v>1767.09327468481</v>
@@ -5066,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>2000.567734136593</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>2000.567734136593</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>2000.567734136593</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.416726816583</v>
+        <v>1650.730179473074</v>
       </c>
       <c r="W11" t="n">
-        <v>1354.656425951752</v>
+        <v>1266.969878608242</v>
       </c>
       <c r="X11" t="n">
-        <v>1354.656425951752</v>
+        <v>866.3264807771948</v>
       </c>
       <c r="Y11" t="n">
-        <v>1354.656425951752</v>
+        <v>866.3264807771948</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
@@ -5121,22 +5123,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L12" t="n">
-        <v>690.384199457534</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.850297433489</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O12" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P12" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1014.752890035065</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>843.6595175967814</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>684.1648729196913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>523.2540577880108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5224,25 +5226,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V13" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.772214130362</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.452596429109</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>526.6154762691361</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="C14" t="n">
-        <v>526.6154762691361</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D14" t="n">
-        <v>122.1515463621967</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E14" t="n">
-        <v>122.1515463621967</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F14" t="n">
-        <v>122.1515463621967</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G14" t="n">
-        <v>122.1515463621967</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5312,16 +5314,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.416726816583</v>
+        <v>1984.012350038322</v>
       </c>
       <c r="X14" t="n">
-        <v>1337.773328985535</v>
+        <v>1583.368952207274</v>
       </c>
       <c r="Y14" t="n">
-        <v>936.8366559336256</v>
+        <v>1182.432279155364</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
         <v>469.7036984844746</v>
@@ -5352,28 +5354,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M15" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N15" t="n">
-        <v>704.7239474634683</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129794</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.263917876656</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
-        <v>362.1705454383725</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6759007612826</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5470,16 +5472,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V16" t="n">
-        <v>1463.112849513378</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W16" t="n">
-        <v>1184.043185022252</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X16" t="n">
-        <v>945.6993228819357</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.9636242707004</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>492.6927300678241</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C17" t="n">
-        <v>82.56813938109417</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960205</v>
+        <v>863.4445812219428</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>449.1043657388395</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
         <v>1592.293889628578</v>
@@ -5552,13 +5554,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>902.9139097323135</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.450954962253</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N18" t="n">
-        <v>1592.293889628578</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1416.593134765086</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.593134765086</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.593134765086</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.707389704608</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>863.6377252134819</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>625.2938630731653</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1702.277097002272</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.152506315542</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D20" t="n">
-        <v>887.6885764086026</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E20" t="n">
-        <v>473.3483609254992</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F20" t="n">
-        <v>52.31794887918674</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>306.503420346941</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>474.5142654478523</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>1121.948882827788</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1121.948882827788</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1121.948882827788</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.579739244893</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2294.736437164045</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>2513.434949718672</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>2112.498276666762</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1248.239089995371</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>1114.244018744317</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>997.3468609637093</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>876.8540449560373</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>767.8941651385419</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>660.9040524528806</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>590.1568394885967</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>569.4082481088369</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>762.2211056714701</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>1218.027361936769</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>1218.027361936769</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M21" t="n">
-        <v>1865.461979316705</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N21" t="n">
-        <v>1865.461979316705</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>1865.461979316705</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>2236.493459912723</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2586.337924596707</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2507.907434073646</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>2348.565570260654</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>2151.214759398873</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1937.503232391906</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1724.270064128235</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1547.944082267128</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>1388.542122630958</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.871813980423</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C22" t="n">
-        <v>371.871813980423</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D22" t="n">
-        <v>371.871813980423</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E22" t="n">
-        <v>371.871813980423</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F22" t="n">
-        <v>371.871813980423</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G22" t="n">
-        <v>204.6214229059664</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H22" t="n">
-        <v>55.01396771142305</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1395.325077379947</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T22" t="n">
-        <v>1395.325077379947</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U22" t="n">
-        <v>1112.526929926071</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V22" t="n">
-        <v>838.641184865593</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W22" t="n">
-        <v>559.5715203744674</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X22" t="n">
-        <v>559.5715203744674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y22" t="n">
-        <v>559.5715203744674</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.561405884877</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.436815198147</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.436815198147</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>815.4690806777985</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>394.4386686314861</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4041.227487754305</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3819.021003701164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3561.960511960674</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3212.122957297155</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.362656432324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>2427.719258601276</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2026.782585549366</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K24" t="n">
-        <v>539.3364275245028</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L24" t="n">
-        <v>539.3364275245028</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M24" t="n">
-        <v>539.3364275245028</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N24" t="n">
-        <v>1218.469009937191</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O24" t="n">
-        <v>1218.469009937191</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P24" t="n">
-        <v>1780.174902425721</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3412.317746073993</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C25" t="n">
-        <v>3241.22437363571</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D25" t="n">
-        <v>3241.22437363571</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E25" t="n">
-        <v>3080.313558504029</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F25" t="n">
-        <v>3080.313558504029</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G25" t="n">
-        <v>2913.063167429572</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H25" t="n">
-        <v>2763.455712235029</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>2661.192215744566</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>2815.744543466803</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>3075.641643746864</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>3364.905700187357</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>3645.744482581607</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>3905.305092908081</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>4110.980533157694</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>4176.508562960204</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>4176.508562960204</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T25" t="n">
-        <v>4176.508562960204</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U25" t="n">
-        <v>4176.508562960204</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V25" t="n">
-        <v>4176.508562960204</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W25" t="n">
-        <v>4063.097013219589</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X25" t="n">
-        <v>3824.753151079273</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y25" t="n">
-        <v>3600.017452468037</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1294.272800950781</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C26" t="n">
-        <v>1294.272800950781</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D26" t="n">
-        <v>1294.272800950781</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E26" t="n">
-        <v>879.9325854676781</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F26" t="n">
-        <v>458.9021734213657</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>50.17388931419782</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N26" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6254,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.493980615271</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X26" t="n">
-        <v>1704.493980615271</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y26" t="n">
-        <v>1704.493980615271</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L27" t="n">
-        <v>234.5779431922353</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M27" t="n">
-        <v>751.4208778585605</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.566882129793</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O27" t="n">
-        <v>1738.409816796118</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6336,7 +6338,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V27" t="n">
         <v>1409.860069912671</v>
@@ -6348,7 +6350,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.6466025934674</v>
+        <v>1100.666128402532</v>
       </c>
       <c r="C28" t="n">
-        <v>373.6466025934674</v>
+        <v>929.5727559642482</v>
       </c>
       <c r="D28" t="n">
-        <v>373.6466025934674</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E28" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F28" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V28" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W28" t="n">
-        <v>498.0829448374625</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0829448374625</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="Y28" t="n">
-        <v>373.6466025934674</v>
+        <v>1288.365834796576</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1690.327927173125</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C29" t="n">
-        <v>1690.327927173125</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L29" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O29" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6534,31 +6536,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>187.8810127971426</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>187.8810127971426</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>704.7239474634679</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N30" t="n">
-        <v>704.7239474634679</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O30" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.7227742897833</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C31" t="n">
-        <v>468.6294018514998</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D31" t="n">
-        <v>468.6294018514998</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6643,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.955405827435</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.406666804137</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U31" t="n">
-        <v>913.6085193502613</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V31" t="n">
-        <v>639.7227742897833</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W31" t="n">
-        <v>639.7227742897833</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X31" t="n">
-        <v>639.7227742897833</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y31" t="n">
-        <v>639.7227742897833</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1281.648372469812</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C32" t="n">
-        <v>871.5237817830823</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D32" t="n">
-        <v>871.5237817830823</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>733.4074053521598</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M32" t="n">
-        <v>1250.250340018485</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N32" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O32" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
         <v>2088.254281480102</v>
@@ -6731,19 +6733,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="Y32" t="n">
-        <v>1691.869552134302</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M33" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N33" t="n">
-        <v>1724.070068790184</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O33" t="n">
-        <v>1738.409816796119</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1648.189235160388</v>
+        <v>1073.455858920572</v>
       </c>
       <c r="C34" t="n">
-        <v>1477.095862722105</v>
+        <v>902.3624864822882</v>
       </c>
       <c r="D34" t="n">
-        <v>1317.601218045015</v>
+        <v>742.8678418051982</v>
       </c>
       <c r="E34" t="n">
-        <v>1156.690402913334</v>
+        <v>581.9570266735177</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0592770239257</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S34" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T34" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.095818095024</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.095818095024</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X34" t="n">
-        <v>1729.095818095024</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y34" t="n">
-        <v>1729.095818095024</v>
+        <v>1261.155565314616</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>296.0158633283044</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C35" t="n">
-        <v>296.0158633283044</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D35" t="n">
-        <v>296.0158633283044</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E35" t="n">
-        <v>296.0158633283044</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F35" t="n">
-        <v>296.0158633283044</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G35" t="n">
-        <v>296.0158633283044</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L35" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N35" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O35" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6968,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>696.9525363802143</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.0158633283044</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>690.384199457534</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L36" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O36" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7072,43 +7074,43 @@
         <v>1648.189235160388</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E37" t="n">
         <v>1156.690402913334</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
         <v>2022.726251677591</v>
@@ -7117,28 +7119,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>2060.624640165668</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S37" t="n">
-        <v>2060.624640165668</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T37" t="n">
-        <v>2060.624640165668</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U37" t="n">
-        <v>2060.624640165668</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V37" t="n">
-        <v>2060.624640165668</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W37" t="n">
-        <v>2060.624640165668</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X37" t="n">
         <v>2060.624640165668</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>927.552149321046</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C38" t="n">
-        <v>927.552149321046</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D38" t="n">
-        <v>927.552149321046</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>513.2119338379428</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>92.1815217916303</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L38" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M38" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N38" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
         <v>2088.254281480102</v>
@@ -7199,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.416726816583</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W38" t="n">
-        <v>1738.416726816583</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X38" t="n">
-        <v>1337.773328985535</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y38" t="n">
-        <v>1337.773328985535</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L39" t="n">
-        <v>234.5779431922353</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M39" t="n">
-        <v>234.5779431922353</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N39" t="n">
-        <v>751.4208778585605</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O39" t="n">
-        <v>1268.263812524886</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P39" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>583.3556631620627</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2622907237792</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2622907237792</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E40" t="n">
-        <v>251.3514755920987</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F40" t="n">
-        <v>251.3514755920987</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G40" t="n">
         <v>191.3725408241454</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7357,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V40" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W40" t="n">
-        <v>583.3556631620627</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X40" t="n">
-        <v>583.3556631620627</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.3556631620627</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1081.644098731082</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="C41" t="n">
-        <v>957.8755444660092</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D41" t="n">
-        <v>957.8755444660092</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E41" t="n">
-        <v>957.8755444660092</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>536.8451324196967</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L41" t="n">
-        <v>1075.450954962253</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M41" t="n">
-        <v>1592.293889628578</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P41" t="n">
         <v>2047.697635790537</v>
@@ -7439,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1482.28749656213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.644098731082</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.644098731082</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7494,19 +7496,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>234.5779431922353</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M42" t="n">
-        <v>751.4208778585605</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N42" t="n">
-        <v>1268.263812524886</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O42" t="n">
-        <v>1268.263812524886</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P42" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q42" t="n">
         <v>2058.694762117472</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.263917876656</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="C43" t="n">
-        <v>362.1705454383725</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="D43" t="n">
-        <v>202.6759007612826</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U43" t="n">
-        <v>862.4253276531883</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V43" t="n">
-        <v>720.9636242707004</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W43" t="n">
-        <v>720.9636242707004</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X43" t="n">
-        <v>720.9636242707004</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.9636242707004</v>
+        <v>542.5372301510217</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.517402081457</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C44" t="n">
-        <v>819.3996562188394</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D44" t="n">
-        <v>819.3996562188394</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E44" t="n">
-        <v>425.3059392994284</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>31.21222238001735</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L44" t="n">
-        <v>31.21222238001735</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M44" t="n">
-        <v>417.4634743327321</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N44" t="n">
-        <v>803.7147262854468</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O44" t="n">
-        <v>812.642214563296</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000868</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.611119000868</v>
+        <v>723.2252779860048</v>
       </c>
       <c r="Y44" t="n">
-        <v>1560.611119000868</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>300.9427749225932</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>166.9477036715389</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>151.7050383876894</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L45" t="n">
-        <v>224.0250799426506</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M45" t="n">
-        <v>610.2763318953653</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N45" t="n">
-        <v>996.52758384808</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
-        <v>1382.778835800795</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.2458075581799</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1485.0485013501</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V46" t="n">
-        <v>548.6257490114597</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W46" t="n">
-        <v>269.556084520334</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X46" t="n">
-        <v>31.21222238001735</v>
+        <v>454.2004906348817</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>229.4647920236464</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>265.701425083553</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>270.2143986912198</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>94.81936791818303</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>228.7885022587805</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538821</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>68.74422894819196</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,16 +8458,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8535,16 +8537,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8690,10 +8692,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L11" t="n">
-        <v>272.0504334731806</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8705,7 +8707,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8769,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>559.8834573428707</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8927,25 +8929,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>553.6531472828633</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>67.6779873391382</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>263.5046911326696</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9167,16 +9169,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>558.7215717793176</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>258.8443140175719</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>749.459759052679</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>429.0389083321155</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>535.5249675786652</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9717,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>739.1859008813133</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>296.5410069764446</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>270.2143986912198</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>528.0883472030758</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10112,28 +10114,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>292.3871721926164</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533567</v>
       </c>
       <c r="O29" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9610844237783</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10349,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>87.31214281472352</v>
@@ -10428,28 +10430,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>72.2360729453882</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L35" t="n">
-        <v>298.736180582244</v>
+        <v>231.0841246958421</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10665,10 +10667,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>362.0354133794548</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10677,16 +10679,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>560.949698951924</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>535.1658287548266</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
         <v>87.31214281472352</v>
@@ -10902,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794548</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q39" t="n">
-        <v>333.0441487333853</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>553.6531472828635</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11142,22 +11144,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>332.4660540393955</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>499.2964884458365</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>537.3610023606258</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2074405529035</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>233.8882038917663</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22555,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>364.1151103928142</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>40.11513325360325</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22604,7 +22606,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.8394155455417</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,10 +22755,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22765,13 +22767,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>8.211964027013664</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.77593127592985</v>
+        <v>355.7368230076538</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,10 +22792,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -22993,13 +22995,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>4.874559219806486</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23021,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>360.0242673938928</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>174.0418857177117</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23075,19 +23077,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.43151281603627</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,10 +23229,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -23242,7 +23244,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>333.8409949207246</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>47.1185825837659</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -23479,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.99192010088265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>228.2168162732905</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23552,10 +23554,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>276.7231857288207</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>164.1762662001701</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>360.0242673938928</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>13.55422061770417</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -23792,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23938,13 +23940,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>31.50271142837616</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24032,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>295.1990945544787</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24139,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>112.5135267928032</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>23.13875615312764</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>164.0015336030054</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>299.4746967508094</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24494,7 +24496,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>179.589395998633</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>30.12847945292479</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.29636280356777</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.17187710393722</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>135.0913509214565</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24971,10 +24973,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>208.2643186898287</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24983,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.506424269048352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.7251922248148</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>57.06664624006518</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25141,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H35" t="n">
-        <v>56.09114247684391</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25208,19 +25210,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06664624006455</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,7 +25377,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176236</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25397,16 +25399,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>354.7287294656882</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>13.07651982190356</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>106.1987417434383</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>93.42449318090686</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>12.17187710393767</v>
       </c>
       <c r="C41" t="n">
-        <v>283.4924760574402</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25688,10 +25690,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>96.09224479733619</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>131.0998012612102</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>62.37677637587154</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>30.08112828711126</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>99.27352434754042</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>55.35263051300458</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.964744892</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611166.0697271727</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786046.4131700959</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552038.9647448923</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552038.9647448921</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461417.019922804</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="C2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="D2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="E2" t="n">
         <v>133181.3099302737</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="G2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="H2" t="n">
         <v>133181.3099302737</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="J2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="K2" t="n">
         <v>133181.3099302737</v>
-      </c>
-      <c r="E2" t="n">
-        <v>133181.3099302736</v>
-      </c>
-      <c r="F2" t="n">
-        <v>133181.3099302737</v>
-      </c>
-      <c r="G2" t="n">
-        <v>133181.3099302737</v>
-      </c>
-      <c r="H2" t="n">
-        <v>147443.3843094463</v>
-      </c>
-      <c r="I2" t="n">
-        <v>189626.3470367046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>133181.3099302737</v>
-      </c>
-      <c r="K2" t="n">
-        <v>133181.3099302736</v>
       </c>
       <c r="L2" t="n">
         <v>133181.3099302736</v>
@@ -26347,13 +26349,13 @@
         <v>133181.3099302737</v>
       </c>
       <c r="N2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="O2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="P2" t="n">
-        <v>111322.3517109387</v>
+        <v>133181.3099302736</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19747.62995624142</v>
+        <v>19747.62995624141</v>
       </c>
       <c r="C4" t="n">
         <v>19747.62995624142</v>
@@ -26433,10 +26435,10 @@
         <v>19747.62995624142</v>
       </c>
       <c r="H4" t="n">
-        <v>21888.80164579902</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="I4" t="n">
-        <v>28221.7489557056</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="J4" t="n">
         <v>19747.62995624142</v>
@@ -26448,7 +26450,7 @@
         <v>19747.62995624142</v>
       </c>
       <c r="M4" t="n">
-        <v>19747.62995624142</v>
+        <v>19747.62995624141</v>
       </c>
       <c r="N4" t="n">
         <v>19747.62995624142</v>
@@ -26457,7 +26459,7 @@
         <v>19747.62995624142</v>
       </c>
       <c r="P4" t="n">
-        <v>16465.93465315062</v>
+        <v>19747.62995624142</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-126890.8949975794</v>
       </c>
       <c r="C6" t="n">
-        <v>48064.61489553468</v>
+        <v>48064.61489553463</v>
       </c>
       <c r="D6" t="n">
-        <v>48064.61489553468</v>
+        <v>48064.61489553466</v>
       </c>
       <c r="E6" t="n">
+        <v>81692.21489553468</v>
+      </c>
+      <c r="F6" t="n">
+        <v>81692.21489553463</v>
+      </c>
+      <c r="G6" t="n">
+        <v>81692.21489553466</v>
+      </c>
+      <c r="H6" t="n">
+        <v>81692.21489553469</v>
+      </c>
+      <c r="I6" t="n">
+        <v>81692.21489553466</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-54902.5859103603</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81692.21489553469</v>
+      </c>
+      <c r="L6" t="n">
+        <v>81692.21489553463</v>
+      </c>
+      <c r="M6" t="n">
+        <v>81692.21489553471</v>
+      </c>
+      <c r="N6" t="n">
         <v>81692.21489553465</v>
       </c>
-      <c r="F6" t="n">
-        <v>81692.21489553471</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81692.21489553471</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50202.22300912542</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-5828.149419953523</v>
-      </c>
-      <c r="J6" t="n">
-        <v>81692.21489553471</v>
-      </c>
-      <c r="K6" t="n">
-        <v>81692.21489553465</v>
-      </c>
-      <c r="L6" t="n">
-        <v>81692.21489553465</v>
-      </c>
-      <c r="M6" t="n">
-        <v>81692.21489553468</v>
-      </c>
-      <c r="N6" t="n">
-        <v>81692.21489553468</v>
-      </c>
       <c r="O6" t="n">
-        <v>81692.21489553468</v>
+        <v>81692.21489553466</v>
       </c>
       <c r="P6" t="n">
-        <v>71135.12804897488</v>
+        <v>81692.21489553466</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>40.55973291537929</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="L11" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35425,7 +35427,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35489,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N12" t="n">
-        <v>506.6900639491207</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>169.7079243443548</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>374.7792733293117</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>441.875604297781</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>685.9925074875633</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>203.2507825193992</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>474.8949538093259</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>147.5918456237783</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L35" t="n">
-        <v>203.2507825193992</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37385,10 +37387,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>506.6900639491203</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q39" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>445.0368534430327</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>441.875604297781</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.017664927120396</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>179.6285688889625</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356518.3765371651</v>
+        <v>350788.9807059383</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>40.52589087328188</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>17.80671966285743</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531633</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>55.69551283691924</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>268.0670038192007</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.38214486019078</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>393.9470907639073</v>
       </c>
     </row>
     <row r="6">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>242.7782222081376</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>282.8053997497795</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1214,7 +1214,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>62.62271064857725</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.80968187007424</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>103.1995121273624</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.2658873081451</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>313.0795152218687</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.64753893336687</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>386.8650699901659</v>
+        <v>198.0456937560294</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.48383042464037</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2532,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>86.54918498256338</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>40.39502321397677</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>101.2365102614967</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464124</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>127.7712187773943</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>210.8770041692172</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>386.8650699901659</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>120.8714888918874</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>146.7762486444121</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>138.0748604270554</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>105.9181683904495</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3277,16 +3277,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>386.8650699901659</v>
+        <v>330.7516305536349</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>383.5604440308334</v>
+        <v>351.5437420106166</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.0638484442161</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>393.9470907639069</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>378.1938974852948</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>66.89256983317846</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3954,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>107.1280859169437</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.8461780342795</v>
+        <v>40.52589087328222</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>85.25432609134842</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.195547152093</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0709564653631</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0709564653631</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="E2" t="n">
-        <v>503.7307409822598</v>
+        <v>889.5103673011201</v>
       </c>
       <c r="F2" t="n">
-        <v>82.70032893594737</v>
+        <v>468.4799552548077</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>59.75167114763985</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>59.75167114763985</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4366,16 +4366,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.416726816582</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1738.416726816582</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.416726816582</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y2" t="n">
-        <v>1738.416726816582</v>
+        <v>1303.850582784223</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524885</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524885</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524885</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>649.6099637723298</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C4" t="n">
-        <v>478.5165913340464</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>319.0219466569564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1514.905888475786</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1514.905888475786</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1275.357149452488</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>992.5590019986123</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>718.6732569381343</v>
       </c>
       <c r="W4" t="n">
-        <v>1300.389230917926</v>
+        <v>439.6035924470086</v>
       </c>
       <c r="X4" t="n">
-        <v>1062.045368777609</v>
+        <v>201.259730306692</v>
       </c>
       <c r="Y4" t="n">
-        <v>837.3096701663742</v>
+        <v>201.259730306692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860.6179604234998</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="C5" t="n">
-        <v>450.4933697367699</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D5" t="n">
-        <v>450.4933697367699</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>450.4933697367699</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1312.152413668881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>911.5090158378339</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>911.5090158378339</v>
+        <v>1690.327927173125</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L6" t="n">
-        <v>675.164428100838</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N6" t="n">
-        <v>1708.850297433488</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1340.598203386633</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1057.800055932758</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V7" t="n">
-        <v>783.9143108722797</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W7" t="n">
-        <v>504.844646381154</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X7" t="n">
-        <v>266.5007842408373</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1420.972610075122</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C8" t="n">
-        <v>1420.972610075122</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D8" t="n">
-        <v>1420.972610075122</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="E8" t="n">
-        <v>1006.632394592019</v>
+        <v>1059.366014997469</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>638.3356029511563</v>
       </c>
       <c r="G8" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
         <v>586.6008562650821</v>
@@ -4877,34 +4877,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>456.1053011127053</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C11" t="n">
-        <v>456.1053011127053</v>
+        <v>509.4842788179327</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1053011127053</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5041,25 +5041,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N11" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2000.567734136593</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2000.567734136593</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2000.567734136593</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>1650.730179473074</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>1266.969878608242</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>866.3264807771948</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y11" t="n">
-        <v>866.3264807771948</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>1025.008892784822</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N12" t="n">
-        <v>1025.008892784822</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O12" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1182.432279155364</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C14" t="n">
-        <v>1182.432279155364</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D14" t="n">
-        <v>1182.432279155364</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E14" t="n">
-        <v>1182.432279155364</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F14" t="n">
-        <v>761.4018671090519</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W14" t="n">
-        <v>1984.012350038322</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X14" t="n">
-        <v>1583.368952207274</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y14" t="n">
-        <v>1182.432279155364</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.414276561226</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N15" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815612</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128882</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D17" t="n">
-        <v>863.4445812219428</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E17" t="n">
-        <v>449.1043657388395</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1157.464295913028</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>556.145393680103</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>556.145393680103</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>396.650749003013</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>396.650749003013</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>556.145393680103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815612</v>
+        <v>662.8416529850351</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.908511128882</v>
+        <v>662.8416529850351</v>
       </c>
       <c r="D20" t="n">
-        <v>1267.908511128882</v>
+        <v>662.8416529850351</v>
       </c>
       <c r="E20" t="n">
-        <v>853.568295645779</v>
+        <v>662.8416529850351</v>
       </c>
       <c r="F20" t="n">
-        <v>432.5378835994666</v>
+        <v>241.8112409387227</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
         <v>2088.254281480102</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147451</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="E22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="F22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.988587952916</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N23" t="n">
-        <v>812.7934917636815</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959272</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962252</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U25" t="n">
-        <v>777.1526093285881</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V25" t="n">
-        <v>777.1526093285881</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W25" t="n">
-        <v>777.1526093285881</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X25" t="n">
-        <v>777.1526093285881</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y25" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>451.8896763163319</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="C26" t="n">
-        <v>41.76508562960203</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76508562960203</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960203</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962252</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O26" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q26" t="n">
         <v>2088.254281480102</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2047.45122772861</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>2047.45122772861</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V26" t="n">
-        <v>2047.45122772861</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W26" t="n">
-        <v>1663.690926863779</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X26" t="n">
-        <v>1263.047529032731</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="Y26" t="n">
-        <v>862.1108559808214</v>
+        <v>860.0557577311233</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N27" t="n">
-        <v>1531.257211227551</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O27" t="n">
-        <v>2048.100145893876</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6338,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1100.666128402532</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>929.5727559642482</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.365834796576</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1288.365834796576</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.365834796576</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>1288.365834796576</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.033101815612</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.908511128882</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="D29" t="n">
-        <v>1267.908511128882</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E29" t="n">
-        <v>853.568295645779</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F29" t="n">
-        <v>432.5378835994666</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M29" t="n">
-        <v>1846.479361096332</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N29" t="n">
-        <v>2088.254281480102</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P29" t="n">
         <v>2088.254281480102</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6551,7 +6551,7 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1131.098935930739</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>324.768313783391</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1543.534340936018</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.798642324783</v>
+        <v>495.8616862216745</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1691.724233752687</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="C32" t="n">
-        <v>1281.599643065957</v>
+        <v>1367.951405748884</v>
       </c>
       <c r="D32" t="n">
-        <v>877.1357131590178</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E32" t="n">
-        <v>462.7954976759145</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L32" t="n">
-        <v>537.7254774811263</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M32" t="n">
-        <v>1054.568412147451</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N32" t="n">
         <v>1571.411346813777</v>
@@ -6730,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>1831.193789739612</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V32" t="n">
-        <v>1691.724233752687</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W32" t="n">
-        <v>1691.724233752687</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="X32" t="n">
-        <v>1691.724233752687</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="Y32" t="n">
-        <v>1691.724233752687</v>
+        <v>1516.210242763442</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>234.5779431922353</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M33" t="n">
-        <v>751.4208778585604</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N33" t="n">
-        <v>1268.263812524885</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
-        <v>1268.263812524885</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1073.455858920572</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>902.3624864822882</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>742.8678418051982</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>581.9570266735177</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6882,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1261.155565314616</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815612</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.908511128882</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="D35" t="n">
-        <v>1267.908511128882</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="E35" t="n">
-        <v>853.568295645779</v>
+        <v>462.2094044273116</v>
       </c>
       <c r="F35" t="n">
-        <v>432.5378835994666</v>
+        <v>462.2094044273116</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M35" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N35" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O35" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6979,10 +6979,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>537.7254774811263</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N36" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O36" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>2088.254281480102</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.673583001884</v>
+        <v>538.2414389992588</v>
       </c>
       <c r="C38" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="D38" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E38" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F38" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G38" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.568412147451</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M38" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N38" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221061</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817052</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522209</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X38" t="n">
-        <v>352.673583001884</v>
+        <v>1349.399291715658</v>
       </c>
       <c r="Y38" t="n">
-        <v>352.673583001884</v>
+        <v>948.4626186637482</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>537.7254774811263</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
         <v>1054.568412147451</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>843.6595175967811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.820120110135</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1202.452596429109</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1690.327927173125</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C41" t="n">
-        <v>1690.327927173125</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N41" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O41" t="n">
         <v>2047.697635790537</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>877.1357131590178</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L42" t="n">
-        <v>508.1659581184963</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.008892784821</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N42" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O42" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q42" t="n">
         <v>2058.694762117472</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.5372301510217</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C43" t="n">
-        <v>542.5372301510217</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D43" t="n">
-        <v>542.5372301510217</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>542.5372301510217</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U43" t="n">
-        <v>1059.950756782464</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V43" t="n">
-        <v>1059.950756782464</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W43" t="n">
-        <v>780.8810922913383</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X43" t="n">
-        <v>542.5372301510217</v>
+        <v>201.259730306692</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.5372301510217</v>
+        <v>201.259730306692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352.673583001884</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C44" t="n">
-        <v>352.673583001884</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D44" t="n">
-        <v>352.673583001884</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E44" t="n">
-        <v>352.673583001884</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F44" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O44" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P44" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221061</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817052</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W44" t="n">
-        <v>1123.868675817052</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X44" t="n">
-        <v>723.2252779860048</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y44" t="n">
-        <v>352.673583001884</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L45" t="n">
-        <v>537.7254774811263</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M45" t="n">
+        <v>537.7254774811262</v>
+      </c>
+      <c r="N45" t="n">
         <v>1054.568412147451</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
         <v>1571.411346813777</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7833,25 +7833,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1485.0485013501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1245.499762326802</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1245.499762326802</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>971.614017266324</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>692.5443527751984</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>454.2004906348817</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>229.4647920236464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7990,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>270.2143986912198</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>395.5690244730513</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>228.7885022587805</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>198.9610844237788</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1513772538821</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730674</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>394.6973592394729</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>265.701425083553</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>332.1773130131622</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730678</v>
       </c>
       <c r="O12" t="n">
         <v>579.8150493700256</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>553.6531472828633</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875377</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>263.5046911326696</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051006</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9503,7 +9503,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>535.5249675786652</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9725,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>270.2143986912198</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>337.1293820533567</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10196,13 +10196,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>425.427124839344</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10354,16 +10354,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>596.4554908421622</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
@@ -10430,28 +10430,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>499.2964884458369</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>231.0841246958421</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>362.0354133794548</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,16 +10679,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>362.0354133794548</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10916,10 +10916,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>555.489182064824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>332.4660540393955</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>236.9512395019908</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11299,13 +11299,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>537.3610023606258</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
@@ -11314,13 +11314,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>557.0846165901664</v>
       </c>
       <c r="M45" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>364.1151103928142</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>67.68152539324014</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>28.72447830443511</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>8.211964027013664</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.7368230076538</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>2.980215557483461</v>
       </c>
     </row>
     <row r="6">
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23032,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0418857177117</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>121.8356015163166</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>342.0182906175189</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.1185825837659</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>371.6886149423797</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>276.7231857288207</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>13.55422061770417</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>33.25966389501542</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23895,19 +23895,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>125.3372756971478</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17.77593127593025</v>
+        <v>206.5953075100667</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,7 +24034,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24141,10 +24141,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>100.0940567390716</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24259,22 +24259,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>193.4209809967737</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>179.589395998633</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>295.4004535912403</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>30.12847945292479</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>195.2419636986273</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>17.77593127593025</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37.02820933843172</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>259.2470961354504</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>208.2643186898287</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>57.06664624006518</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>17.77593127593025</v>
+        <v>73.88937071246124</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176236</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25408,10 +25408,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>13.07651982190356</v>
+        <v>45.09322184212039</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.42449318090686</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.17187710393767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25681,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>1.728800370888337</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25791,22 +25791,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>96.09224479733619</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>128.8323376019698</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.08112828711126</v>
+        <v>356.4014154481086</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26073,13 +26073,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>99.27352434754042</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552038.9647448921</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552038.964744892</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552038.9647448921</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552038.9647448921</v>
+        <v>552038.9647448923</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552038.9647448921</v>
+        <v>552038.9647448922</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552038.9647448922</v>
+        <v>552038.9647448921</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>133181.3099302736</v>
       </c>
       <c r="C2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="D2" t="n">
         <v>133181.3099302736</v>
@@ -26325,7 +26325,7 @@
         <v>133181.3099302737</v>
       </c>
       <c r="F2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="G2" t="n">
         <v>133181.3099302736</v>
@@ -26334,7 +26334,7 @@
         <v>133181.3099302737</v>
       </c>
       <c r="I2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="J2" t="n">
         <v>133181.3099302736</v>
@@ -26343,19 +26343,19 @@
         <v>133181.3099302737</v>
       </c>
       <c r="L2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="M2" t="n">
         <v>133181.3099302737</v>
       </c>
       <c r="N2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="O2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="P2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="C4" t="n">
         <v>19747.62995624142</v>
@@ -26450,7 +26450,7 @@
         <v>19747.62995624142</v>
       </c>
       <c r="M4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="N4" t="n">
         <v>19747.62995624142</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126890.8949975794</v>
+        <v>-127568.4238569735</v>
       </c>
       <c r="C6" t="n">
-        <v>48064.61489553463</v>
+        <v>47387.08603614064</v>
       </c>
       <c r="D6" t="n">
-        <v>48064.61489553466</v>
+        <v>47387.08603614061</v>
       </c>
       <c r="E6" t="n">
-        <v>81692.21489553468</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="F6" t="n">
-        <v>81692.21489553463</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="G6" t="n">
-        <v>81692.21489553466</v>
+        <v>81014.6860361406</v>
       </c>
       <c r="H6" t="n">
-        <v>81692.21489553469</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="I6" t="n">
-        <v>81692.21489553466</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="J6" t="n">
-        <v>-54902.5859103603</v>
+        <v>-55580.11476975437</v>
       </c>
       <c r="K6" t="n">
-        <v>81692.21489553469</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="L6" t="n">
-        <v>81692.21489553463</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="M6" t="n">
-        <v>81692.21489553471</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="N6" t="n">
-        <v>81692.21489553465</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="O6" t="n">
-        <v>81692.21489553466</v>
+        <v>81014.68603614063</v>
       </c>
       <c r="P6" t="n">
-        <v>81692.21489553466</v>
+        <v>81014.68603614066</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103356</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346339</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>445.0368534430331</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N11" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="O12" t="n">
         <v>522.0635703700256</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793174</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>441.875604297781</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>367.8628411009266</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>500.9700927793174</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>306.2096305948394</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>306.2096305948394</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>276.3515302285465</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38019,13 +38019,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>441.875604297781</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.9700927793174</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
